--- a/data/poblacion_comunas2.xlsx
+++ b/data/poblacion_comunas2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13c0fce16975a509/Proyectos R/ciencia_datos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{49FBA726-AEFB-47F4-8A06-307910362C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C708F70-11F0-4010-B91D-E4161B36D993}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{49FBA726-AEFB-47F4-8A06-307910362C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E7B497D-5B2E-4FCF-90E4-9770F03852BB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="365">
   <si>
     <t>Region</t>
   </si>
@@ -1109,6 +1109,12 @@
   </si>
   <si>
     <t>POBLACION POR COMUNAS CHILE</t>
+  </si>
+  <si>
+    <t>gdh</t>
+  </si>
+  <si>
+    <t>Fuente: ISP</t>
   </si>
 </sst>
 </file>
@@ -1671,6 +1677,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,7 +1687,6 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2091,10 +2097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F369"/>
+  <dimension ref="B1:H371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="F369" sqref="F369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,27 +2112,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
@@ -6110,7 +6119,7 @@
         <v>20071</v>
       </c>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D369" t="s">
         <v>321</v>
       </c>
@@ -6119,6 +6128,11 @@
       </c>
       <c r="F369">
         <v>7994</v>
+      </c>
+    </row>
+    <row r="371" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H371" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
